--- a/Exercise 3/exercise_2_AlmaguerMasriSaleh_task_e/results.xlsx
+++ b/Exercise 3/exercise_2_AlmaguerMasriSaleh_task_e/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14235" windowHeight="8130" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14235" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Touchpad" sheetId="1" r:id="rId1"/>
@@ -104,6 +104,6897 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Touchpad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10208404655939747"/>
+                  <c:y val="-0.51809969266662181"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Touchpad!$E$4:$E$102,Touchpad!$M$4:$M$102,Touchpad!$U$4:$U$102,Touchpad!$AC$4:$AC$102,Touchpad!$AK$4:$AK$102)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="495"/>
+                <c:pt idx="0">
+                  <c:v>1.4158531633614351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9285235238605409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2257040486580881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7704594411063592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1004689088719113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5114575040738967</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5173226235262949</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4586150226995167</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0647107369924282</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1822118404966093</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4538745405402715</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54232429082536171</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2846635654062037</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6602595372658615</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.024853351395433</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.74668794748797529</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8815637979434374</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7422190236679189</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0367368849500223</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1041341542702074</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7029282555214393</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0643279038697879</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7472709142554912</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7369512327330598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6582280766035324</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1463051320333655</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7376090033437546</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.903990833730882</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.2823823856765264</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.7013019741124933</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5380565643793527</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.3369865197113779</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6889806383818593</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7647455447787554</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99325177301028345</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.6614243597621545</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.0104486701928845</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2137538792874301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.79750719588418795</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0476928433652555</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9665111907122159</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.3393219779440679</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.9907197317304468</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3987168811184478</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.4210000089583352</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.0500443033255209</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4872702784598928</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.906004933102583</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5810384379124023</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.9140210080908191</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.763522997109702</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2725655957915476</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.1041341542702074</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9671123567059163</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.642622395779755</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.8564702062204832</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2925347571405443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.3987168811184478</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.3214324131932926</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8562979903656263</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.5707020099509865</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2237754316221157</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6144254539451395</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.954910279033736</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.0303388286721038</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6925528191446071</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.2657594107670511</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.4858448557224402</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8825138324965192</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.34109345759245</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.954910279033736</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.2248578965457479</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.8124102164264526</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.8774315606585268</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.6609942506244004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5539252025038417</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.4531571205928664</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.5890591188317256</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.1322280181425284</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.8022081394209395</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.2308043957334744</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0082140323914683</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.675871302737975</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.8588987720656835</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7173950539391927</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.0980179272527715</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.4959564859745851</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.1108738641733114</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.26689632742025</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.5481422391451556</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.57069708411767</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.5751506887855933</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.4292177439274116</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.0898043287153825</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.2460147415056513</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4680995314716192</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2527629684953681</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.2383742310432684</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.4701758451005926</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.1346227261911428</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.7227665977411035</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.9095425048844386</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.0809215418899605</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.9778107459661491</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.1061646118205894</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.6351056591826783</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.4765384001174837</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.6461747973841225</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.1631508098056809</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.9740810260220096</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.5332765514685363</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.4046903159311994</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.8870696490323797</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.5197105719826927</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.713572066704308</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.631888840136646</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.7867469274045107</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.4069451083182885</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.1354942159291497</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.8959119382717802</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.1570004211501135</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.3624250933500628</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.3442067676848652</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.912023005428146</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.3945083935113587</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.1478787032330642</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.7959174793767188</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.6808279085207734</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.498699971920336</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.74193734472937733</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.8088822465086327</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.0842009215415991</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.5238800240724537</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.3261904370501851</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.9095425048844386</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.2335316065674804</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.7694588292308535</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.138361447638875</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.1314021114911006</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.4225878853887419</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.1474024528375417</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.6763006719070761</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.2902658209548736</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.76159096803024</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3.7328963395307104</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.5877640352277083</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.7123518102990785</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.7472709142554912</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.7725887222397811</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.205970806988609</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.8735646395797834</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4.1541845625781173</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.7741500028067336</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.3792925462741055</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.010894999144726</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4.0500443033255209</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.9652730660692823</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.5623463049002497</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.9339339580085977</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.5858825671280026</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.2809112157876537</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.6938669956249757</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.0143086591269266</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.3956199589612348</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.9219733362813143</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.4701758451005926</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.6100697927420065</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.1381034543284221</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.8458266904983307</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.5260563034950492</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.3337607104624953</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4.3907385752759032</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.8351419610921882</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4.3438054218536841</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.1234584270966104</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.33214389523559</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.2353763433005955</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.4531579514734201</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.8213182714695995</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4.2598590006996737</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.0910424533583161</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.8213788864092133</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.7439688053917064</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.5560371357069851</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.3100571078327468</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4.0127729085282891</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.442989704796436</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.5779478934066544</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.0126783255201537</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3.6402142821326553</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.7404661748405046</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.7613002617433464</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.7227665977411035</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.2386784521643803</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.4861396960896067</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.0260415958332743</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3.3603753871419002</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.3592804366705908</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3.9100210027574729</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2.5123056239761148</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2.6330871626287546</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.33500106673234</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2.9652730660692823</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4.3451032805692833</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3.7612001156935624</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2.0752661702693551</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.9895411936137477</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.2499017362143359</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.6114359150967734</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4.048300623720694</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2.4408967087915578</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.85015092936961001</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3.7887247890836524</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.0681530811834012</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2.0856720914304723</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.3322045101752038</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>4.0859763125515842</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2.1341664413690822</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.6100697927420065</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3.2108436531709366</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.1837700970084166</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2.253394848803274</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2.6810215287142909</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4.3567088266895917</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2.8033603809065348</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3.326832966373293</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.2235418856535927</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3.068052935133617</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3.2464909919011742</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2.7520670865189842</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.30010459245033816</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.6601310267496185</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2.7911651078127169</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2.5055259369907361</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3.5100517865742376</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.5129270120532565</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.8946168546677629</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2.7819200496686656</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.6741486494265287</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>3.655839600035736</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2.5552874465497997</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.57661336430399379</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2.6372700190411629</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3.2425923514855168</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3.8607297110405954</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.7369512327330598</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2.4932054526026954</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2.4849066497880004</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>4.160444363926624</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.5003668173797384</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.6114359150967734</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2.0412203288596382</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.80200158547202738</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2.0476928433652555</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.7491998548092591</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2.2192034840549946</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>3.6863763238958178</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3.2714682749873716</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2.2975725511705014</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2.5707020099509865</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2.451005098112319</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2.4233267106901741</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3.1780538303479458</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3.4610373820181723</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2.2442495159810822</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3.7773481021015445</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.6114359150967734</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.7227665977411035</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2.4321502973486893</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>3.095577608523707</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>3.122364924487357</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.7137979277583431</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2.1972245773362196</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2.5572273113676265</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2.0541237336955462</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2.7294854818222749</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3.0289252409097549</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3.8437441646748516</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.1568811967920856</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3.7658404952500648</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2.4890646599366639</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2.145931282948669</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>4.1926804629429624</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2.24953587190423</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1.8991179875485542</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2.161405479531266</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.72754860727727788</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.3566938913436</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3.7208624999669868</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.97077891715822462</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>3.8022081394209395</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.80005827204275</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.7173950539391927</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2.0048526846887631</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3.4904285153900978</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2.5402887956395852</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2.2975725511705014</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.0681530811834012</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2.5533438113412288</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3.8979240810486444</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>3.1738784589374651</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3.7495040759303713</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2.4553061800117097</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.1837700970084166</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>3.3250360206965914</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.6243265249278511</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>3.5438536820636788</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.2809338454620642</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2.7212954278522306</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.4350845252893227</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>4.2527717988166192</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2.7850112422383382</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1.9120085973796319</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2.145931282948669</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>4.4079380164583828</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1.9782390361706734</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2.4225878853887419</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2.1633230256605378</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1.8050046959780757</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1.4508328822574619</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>3.3322045101752038</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1.1474024528375417</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>3.4127965175055075</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>2.8094026953624978</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>2.7047112998366956</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>3.1068263210595779</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1.7544036826842861</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1.2919836816486494</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1.6863989535702288</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>3.0155349008501706</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>2.731115474033206</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.92624106272732309</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1.4508328822574619</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3.2228678461377385</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>3.609565647394211</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>2.5649493574615367</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1.3737155789130306</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>4.2626798770413155</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1.62924053973028</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>2.7472709142554912</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1.547562508716013</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1.235471471385307</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>1.3190856114264407</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.67294447324242579</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1.7578579175523736</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1.3686394258811698</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>1.2878542883066382</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1.1786549963416462</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>1.6351056591826783</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>3.7977338590260183</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>3.591817741270805</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>2.7725887222397811</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>2.5257286443082556</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>2.0347056478384444</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>2.0476928433652555</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>2.0451088625993306</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>2.5585184671312464</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>2.653241964607215</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1.8405496333974869</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>2.8492603696537335</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>3.459466289786131</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>2.3856999997045523</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1.1786549963416462</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>2.4336133554004498</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.84729786038720345</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>2.5552874465497997</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1.5686159179138452</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1.8578592709325787</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1.6582280766035324</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>3.0056826044071592</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1.5107219394949425</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>2.1983350716202463</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>2.9109910450989003</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>2.5116297199287536</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>3.8220982979001592</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>3.6712245188752153</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>3.3758795736778655</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>3.1135153092103742</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>3.4078419243808238</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>2.9444389791664403</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>2.2823823856765264</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>2.7942278973432626</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>2.8564702062204832</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>3.3826939100975957</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>3.2208738275308737</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>3.1925318495285988</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>4.0465538983857519</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>2.9014215940827497</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>2.0605135317943168</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>3.7932394694381792</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>1.1631508098056809</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.9895411936137477</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0.84586826757760925</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>2.3772286359898116</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1.2809338454620642</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>4.39197696552705</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>1.8017098000812231</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>4.00369019395397</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1.6770965609079151</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>3.4355988083794879</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>2.3978952727983707</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>2.3125354238472138</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>2.3655598921554342</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>4.0910056609565864</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>2.6497146240892469</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>1.4134230285081431</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>1.9242486522741338</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>2.789630188094633</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>1.9600947840472698</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>3.5189804173185388</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>1.9647786333596962</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>3.7887247890836524</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>2.0268315914075385</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>3.396184839838611</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>2.8434548381084133</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>2.0647508262698322</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>2.1222615388627641</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>2.1935139979396836</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>2.7376090033437546</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>3.8774315606585268</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>2.9444389791664403</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>2.5572273113676265</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>3.5189804173185388</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>1.766441661243765</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>2.7772652701236828</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>1.4398351280479207</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>1.8946168546677629</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>3.1267605359603952</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>1.6272778305624314</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>2.1282317058492679</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>3.0563568953704259</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>2.8507065015037334</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>1.3402504226184837</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>3.6122683517420957</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>1.3083328196501789</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>3.6913763343125234</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>1.5411590716808059</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>1.9021075263969205</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>2.981886866731938</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>0.72754860727727788</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>1.5173226235262949</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>3.7495040759303713</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>2.0162354657760435</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>1.3566938913436</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>2.713037742613249</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>3.9019726695746448</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>3.5234150143864045</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>3.9982007016691985</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>3.8607297110405954</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>2.4751368581921951</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>2.2027647577118348</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>1.3083328196501789</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>3.3586377672433594</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>2.5890163835441742</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>1.430311246536665</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>2.5310478057858554</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>1.536867219599265</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>1.6486586255873816</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>4.396915247167632</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>2.8332133440562162</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>1.7387102481382397</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>1.8718021769015913</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>2.9041650800285006</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>3.2327787300371922</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>1.9740810260220096</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>3.0910424533583161</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>1.9775472339984959</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>2.4136791404996325</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>2.3545448319247568</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>1.0818051703517284</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>1.6639260977181702</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>4.0673158898341812</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>2.713037742613249</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>3.3068867021909143</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>1.4492691602812791</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>2.1556306800373823</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>2.2600254785752498</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>2.2219171899265908</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>1.5738107347909494</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>3.8458832029236012</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>1.3480731482996928</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>2.0237526358192475</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>3.5695326964813701</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>2.5707020099509865</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>3.5610460826040513</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>3.1863526331626408</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>3.3792925462741055</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>4.3027128279541564</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>4.1190371748124726</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>1.7509374747077999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Touchpad!$C$4:$C$102,Touchpad!$K$4:$K$102,Touchpad!$S$4:$S$102,Touchpad!$AA$4:$AA$102,Touchpad!$AI$4:$AI$102)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="495"/>
+                <c:pt idx="0">
+                  <c:v>1791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1166</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1635</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1116</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3134</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3267</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1817</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1432</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1733</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2217</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1333</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2768</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1266</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1651</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1745</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1651</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4385</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3284</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2783</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3501</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2951</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5233</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3334</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1617</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2517</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1832</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2134</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1735</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2067</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1617</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1885</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1832</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2817</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2716</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3535</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2434</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3517</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1483</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3433</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2317</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1617</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1151</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2883</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2718</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1566</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1166</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1569</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1567</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4119</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3249</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2618</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2217</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1633</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1468</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1849</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2483</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1433</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1617</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3784</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2249</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1502</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1483</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1699</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1435</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1167</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2383</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2434</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5084</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1617</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1334</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1517</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3601</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1816</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1684</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1551</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4266</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3151</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1883</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4434</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3034</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1767</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1884</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2301</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1316</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2467</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3101</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2333</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>6866</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2717</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1733</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3516</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2834</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1784</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3217</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1667</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2366</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2384</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2317</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2934</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1666</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2217</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>4251</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1382</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2634</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2934</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1116</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2533</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1348</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1716</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2283</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2167</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>4551</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3051</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1733</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2516</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1468</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1315</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1620</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1398</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1333</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>4816</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2718</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1616</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2667</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1899</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1403</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1667</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1483</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1184</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2783</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2284</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2884</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1266</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1184</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2167</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1582</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>3633</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1649</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1167</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1151</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1131</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1052</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>4516</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1399</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1635</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1151</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1816</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>1899</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1716</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>5934</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>2584</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1834</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1284</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1567</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>3966</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>3634</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>2818</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>1583</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1551</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>1717</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>1255</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>2834</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>1633</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>1567</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>2884</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>2566</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>1418</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>1633</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>1616</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>2168</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>1333</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>1884</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>1251</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>3183</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>3465</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>1299</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>2219</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>2083</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>2717</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>3267</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>2117</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>2233</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>2734</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>2868</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>4267</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>2201</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>1232</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>2884</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>2733</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>3501</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>1483</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>1283</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>5467</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>3534</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>1284</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>3783</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>1251</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>1833</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>1583</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>1634</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>1516</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>5468</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>3934</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>1183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-831A-43C1-924A-318A653698E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="376830288"/>
+        <c:axId val="376830616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="376830288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ID</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376830616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="376830616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MT</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376830288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mouse</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14624483879813524"/>
+                  <c:y val="-0.40385090014096031"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Mouse!$E$4:$E$102,Mouse!$M$4:$M$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>2.8018440803885709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8536904269585455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4719664525503626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8094026953624978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1724821372345651</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1635596312435741</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6956156086751528</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9219733362813143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1341664413690822</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7163490039169051</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6441435602725449</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5323731870269239</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3749057545736716</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7184382563554808</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8875901149342877</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8458832029236012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.57069708411767</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1052568313867783</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0577902941478545</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7488721956224653</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.380994674344636</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1690537003695232</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.169761201506855</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.805378545062772</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0215475632609334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1780538303479458</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1990747166243811</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1282317058492679</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1306098282542352</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.6988297849671046</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.7757088495760249</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9671123567059163</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8748743759385615</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8352445811677938</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9810014688665833</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.0104486701928845</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.0127729085282891</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.0516399054922867</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.0758410906575406</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4853852637641214</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.609565647394211</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1735135968412274</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0944457464900235</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.6349511120883808</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.2188758248682006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.3592804366705908</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9512437185814275</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.9889840465642745</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.4469189829363254</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2755564206061263</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.0926765051214034</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.3603753871419002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.217390246930814</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.597365331199831</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.884800712846709</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.9080599249242156</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.9095425048844386</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.927891643552635</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.92624106272732309</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.860974538249528</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.5257286443082556</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.3232358401924436</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.4248027257182949</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.4466854369678028</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6882490928583902</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.5297206655777931</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.706382144001513</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.7440606386252431</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7369512327330598</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.5380565643793527</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.211930724725915</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.6154199841116479</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.5136560630739861</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.1612467120315646</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.4995332823830174</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5591634203944928</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.6000482404073204</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.0773122605464138</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.8361502037295256</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.0268315914075385</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.8815637979434374</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0630580624293118</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.1972245773362196</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.8732821771117156</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2383742310432684</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.4770487243883548</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.0320878452963655</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.64185388617239469</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.0715836162801904</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.0056826044071592</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5528675609457061</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.1061646118205894</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.0325462466767075</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.760009940032921</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.1837700970084166</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.91629073187415511</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.2110178994685552</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0116009116784799</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.4609379041156565</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.6861453657141601</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.9882040071331994</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.388762789235098</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.8484548129046001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Mouse!$C$4:$C$102,Mouse!$K$4:$K$102,Mouse!$S$4:$S$102,Mouse!$AA$4:$AA$102,Mouse!$AI$4:$AI$102)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="495"/>
+                <c:pt idx="0">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1834</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2383</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1751</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1684</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1583</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2751</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2585</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2267</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>948</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1052</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1166</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1565</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2669</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3734</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1184</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2218</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2418</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2083</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1167</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1768</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1684</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1167</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1733</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2633</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1466</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2184</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1583</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1768</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1333</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1786</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1069</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1884</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1334</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2967</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1817</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1517</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2983</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1151</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1132</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2834</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2167</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1717</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1399</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1185</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1149</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1783</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4322</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3951</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1333</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1333</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3184</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1433</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2967</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2331</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1549</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3068</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1199</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1784</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1602</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1283</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1767</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1884</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2566</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1266</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1466</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1715</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1769</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1784</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1651</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1232</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1314</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1203</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1168</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2184</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1833</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1299</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1766</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1168</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1633</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1433</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>866</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1716</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1752</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1466</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1251</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1667</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1151</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1316</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1517</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1817</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>866</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1349</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1316</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1316</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>1334</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1166</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1583</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1516</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1252</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>1631</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1869</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>1466</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>1256</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>852</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>1167</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>1349</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>1433</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>1834</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>2735</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>1399</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>818</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>1767</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>2467</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>1332</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>2184</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>1766</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-444E-4A1C-8654-8514D5BC64D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="381012528"/>
+        <c:axId val="381009904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="381012528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ID</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381009904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="381009904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MT</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381012528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F803E2FC-7EA1-4884-BF2E-AD872F21F569}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D68D12A6-B197-4A79-98DB-8F4B8C673862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,8 +7296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM112"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="C91" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12791,6 +19682,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12798,8 +19690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111:F112"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="AB45" sqref="AB45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25180,5 +32072,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Exercise 3/exercise_2_AlmaguerMasriSaleh_task_e/results.xlsx
+++ b/Exercise 3/exercise_2_AlmaguerMasriSaleh_task_e/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14235" windowHeight="8130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14235" windowHeight="8130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Touchpad" sheetId="1" r:id="rId1"/>
@@ -222,10 +222,36 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.10208404655939747"/>
-                  <c:y val="-0.51809969266662181"/>
+                  <c:x val="0.15586614173228347"/>
+                  <c:y val="-0.50978280839895018"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>MT = 605.69 ID + 291.14</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3657,10 +3683,36 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.14624483879813524"/>
-                  <c:y val="-0.40385090014096031"/>
+                  <c:x val="0.11823709536307954"/>
+                  <c:y val="-0.60173731408573927"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>MT = 376.61 ID + 318.3</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3693,10 +3745,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Mouse!$E$4:$E$102,Mouse!$M$4:$M$8)</c:f>
+              <c:f>(Mouse!$E$4:$E$102,Mouse!$M$4:$M$102,Mouse!$U$4:$U$102,Mouse!$AC$4:$AC$102,Mouse!$AK$4:$AK$102)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="495"/>
                 <c:pt idx="0">
                   <c:v>2.8018440803885709</c:v>
                 </c:pt>
@@ -4008,6 +4060,1179 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>1.8484548129046001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.2669476034873244</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.8931119634883424</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.9019726695746448</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.1631508098056809</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.6863989535702288</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.7137979277583431</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.7408400239252009</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.2697605448639391</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.8500283773520307</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.7472709142554912</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.5933085305042167</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.9199911750773229</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.5623819619562909</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.7160081215021892</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.731115474033206</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.1841768619437438</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.3029127521808397</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.505557396986398</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.0055133485154846</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.7509374747077999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.202746442938317</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.900047023419583</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.8579059566465874</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4.4188406077965983</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4.2612704335380815</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.6467545278132651</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.2512917986064953</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.202746442938317</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.1222615388627641</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.122364924487357</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.6210388241125804</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.0763116486709081</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.6563214983329508</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.1916535322867641</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.26689632742025</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.2470322937863829</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4.4042772436087017</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.589641970051908</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.0130809118886042</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.8733394562204779</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.3357695763396999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.713037742613249</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.4739999415389964</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.1785324443240666</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.0715836162801904</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.4617233143323429</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.1090609588609941</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.9947003132247452</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.7977338590260183</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4.401829261970061</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4.5685062016164997</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.9339339580085977</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.8671761085128091</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.3987168811184478</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.2318049109329983</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.763522997109702</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.7642204725692645</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.3150076129926029</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.9021075263969205</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.0412203288596382</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.180417459019838</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.83290912293510388</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.199964782928397</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.4797004431500991</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.1780538303479458</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.3843902633457743</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.2406373166497136</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3.3393219779440679</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.2530446474339096</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.6136169696133895</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.2925347571405443</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.2975725511705014</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.9351857736859572</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.7900914121273581</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.1780538303479458</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4.1682144107885559</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.3240203737141107</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.9613995944734857</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.6390573296152584</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.9325261976501982</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4.558078578454241</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3.8565102954978872</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.860974538249528</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.5014359517392109</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.1222615388627641</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.2192034840549946</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.024853351395433</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4.2541932631639972</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.5513963910568331</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.1842843800985818</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.97455963999813078</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.5332765514685363</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.2716314527997508</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.6808279085207734</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4.0809215418899605</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.6300886596324982</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4.0976723523147758</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.6863989535702288</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4.2931954209672663</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.6060990111685858</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3.0349529867072724</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3.7565381025877511</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2.0360119837525001</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4.3081109517237133</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2.300081962775927</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3.6750340472918834</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.631199404215613</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2.4553061800117097</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.7889778262661782</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.1969481893889715</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.1474024528375417</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.4563166808832348</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.766441661243765</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2.7180005319553784</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.66782937257565544</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2.8033603809065348</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3.657130755799356</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.6160824551527688</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.64710324205853853</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.80005827204275</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2.6461747973841225</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.7472709142554912</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3.6216707044204863</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.3272777055844172</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.9523027156266548</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2.5014359517392109</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.5187835441659694</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3.396184839838611</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2.3385955305170789</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2.7584264084272769</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3.4626060097907989</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3.55820113047182</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4.1896547420264252</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.0059743897979634</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.6027489242833037</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.6389967146756448</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2.6444001740257539</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.355835153635182</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>3.6712245188752153</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>4.160444363926624</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2.5455312716044354</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2.3749057545736716</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3.5524868292083815</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2.5802168295923251</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.4786370367744048</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3.2128577525426376</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.9169226121820611</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3.8044377947482086</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.780024213009634</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2.0412203288596382</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2.0630580624293118</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.8625285401162623</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2.5591634203944928</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2.5507464072835431</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.4271163556401456</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.4170660197866443</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>4.4485163759427149</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2.7901420898206819</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3.7966121539168181</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2.6461747973841225</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.7119945007591924</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.887891257352457</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2.3385955305170789</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3.3357695763396999</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.8389610707123492</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>3.9871304779149512</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2.3933394562625097</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3.8088822465086327</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2.8332133440562162</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.7707060600302227</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>4.0569887756783318</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.4778094699556639</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3.6454498961866002</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1.9506607518139112</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2.6810215287142909</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.4492691602812791</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2.5591634203944928</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3.396184839838611</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.5830939370944985</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2.4292177439274116</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2.7788192719904172</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3.1135153092103742</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1.9775472339984959</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3.7471483622379123</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3.1157350659486873</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1.8357763546448294</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1.8640801308076811</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2.7327428136925818</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3.3304171996011083</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1.6956156086751528</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.85441532815606758</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.4966424182887561</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.9823798288367047</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.90825856017689077</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2.9418039315284354</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3.0492730404820207</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>4.1287459889394329</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.5871923034867808</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2.665490586683414</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.7422190236679189</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.66782937257565544</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.3454723665996355</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>3.3105430133940246</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3.2288261557213689</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2.4270126713690976</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>3.9569963710708773</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2.5764217586237734</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2.7488721956224653</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>3.1179499062782403</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2.6155693483080449</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2.3369865197113779</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>3.9759363311717988</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>4.1987045775463434</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2.3075726345050849</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2.2300144001592104</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2.4129331501629112</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1.136764054632486</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1.5129270120532565</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1.8325814637483102</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1.7491998548092591</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>4.1351665567423561</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1.4906543764441333</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>3.0864866368224551</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>2.2908498367756249</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1.6331544390514163</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>3.1986731175506815</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>3.4965075614664802</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>2.9907197317304468</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>2.7196493369455621</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1.355835153635182</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>2.675871302737975</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1.4586150226995167</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>1.4996230464268938</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1.9832976811269336</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>2.7047112998366956</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>2.1439800628174073</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>2.5533438113412288</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>2.7212954278522306</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>3.6951100038645723</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1.451613827240533</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>2.3369865197113779</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>3.1863526331626408</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1.4816045409242156</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>3.6189933266497696</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1.5347143662381639</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>2.2433657333340746</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>2.0082140323914683</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>2.5687881337687024</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>1.9832976811269336</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1.0152306797290584</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>3.4111477125153233</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>4.2794400458987809</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>2.2071749081893874</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>3.5821290841670557</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>2.4159137783010487</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>2.8875901149342877</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>3.6724959748634123</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>3.8405270037230759</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1.1908875647772805</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>2.0307763696985548</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>2.2264237320284819</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1.2431935174792172</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>3.8712010109078911</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1.2809338454620642</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>2.9626924194757911</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>2.8078955360719262</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>4.3956829611213672</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>3.4812400893356918</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>2.180417459019838</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1.1817271953786161</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1.4158531633614351</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>2.7278528283983898</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>2.7694588292308535</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1.9169226121820611</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>2.8492603696537335</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>2.456735772821304</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>2.9338568698359038</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>4.2456340097683265</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>2.5649493574615367</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1.7520942128356236</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>2.100060828882572</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>3.0726933146901194</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>3.0277153194070419</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>3.7074558396868715</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>4.3214801348058476</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>2.2512917986064953</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>4.257030144499196</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>2.24953587190423</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>4.0893320203985564</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>2.981886866731938</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.68309684470644383</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>2.7196493369455621</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>1.6114359150967734</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1.8484548129046001</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>1.7439688053917064</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>2.5277266469709283</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>2.6354795082673745</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1.0818051703517284</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>1.8794650496471605</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>1.3904523712685544</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>1.355835153635182</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>1.3660916538023711</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>3.2425923514855168</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>3.7232808808312687</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>2.9338568698359038</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>3.8732821771117156</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>2.6979998652487085</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>2.9957322735539909</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>2.2704061946298104</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>3.487375077903208</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>1.6174060820832772</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>1.3937663759585914</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>1.2325602611778486</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>4.1174098351530963</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>2.3810881544819891</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>1.3190856114264407</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>4.1092331747158513</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>4.3267781604434035</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>2.5687881337687024</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>2.3561258599220753</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>1.275362800412609</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>4.0893320203985564</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>0.95551144502743635</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>1.9387416595767009</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>0.79975691561820361</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>1.5085119938441398</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>1.6193882432872684</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>1.9947003132247452</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>4.0876555740713041</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>1.6582280766035324</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>3.8691155044168695</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>1.7167964307545998</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>1.041453874828161</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>2.1879221846739059</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>3.2542429687054919</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>3.0796137575346929</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>2.0541237336955462</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>3.1945831322991562</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>2.7002420186543983</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>1.1878434223960523</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>1.3711807233098425</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>1.8870696490323797</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>1.1085626195212777</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>3.7600366484302645</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>2.6051557779395771</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>3.1419947805322432</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>3.021643655338492</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>4.4188406077965983</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>2.0719132752590443</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>1.501852701754163</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>2.1999985042189447</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>1.3083328196501789</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>2.4617233143323429</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>3.2619353143286478</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>2.0710732920093196</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>2.5952547069568657</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>2.4807312783775197</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>3.3463891451671604</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>1.8946168546677629</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>1.7011051009599243</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>3.572345637857985</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>1.8055527913603908</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>2.9285235238605409</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>3.2288261557213689</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>3.0796137575346929</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>2.6878474937846906</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>2.5217206229107165</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>1.634130525024472</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>3.1986731175506815</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>1.4739999415389964</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>2.157559320943788</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>2.7803708626818362</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>3.5380565643793527</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>2.2539199210127645</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>3.8628327612373745</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>2.451005098112319</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>1.7287013332609182</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>0.9895411936137477</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>3.4404180948154366</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>4.3870141761849206</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>2.8749760724181912</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>3.4372078191851885</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>2.2600254785752498</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>2.1488509930520037</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>2.100060828882572</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>2.388762789235098</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>2.3679045591146881</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>2.6567569067146595</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>1.0612565021243408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5645,6 +6870,7 @@
         <c:axId val="381009904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="8000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6926,9 +8152,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6961,15 +8187,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>9523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7296,8 +8522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C91" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView topLeftCell="C91" workbookViewId="0">
+      <selection activeCell="P109" sqref="P109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19690,8 +20916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM112"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="AB45" sqref="AB45"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="Q110" sqref="Q110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
